--- a/database/industries/dode/shekarbon/product/quarterly_seprated.xlsx
+++ b/database/industries/dode/shekarbon/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="e:\Trade\database\industries\dode\shekarbon\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\dode\shekarbon\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A1A68DD-C999-48AD-92AB-65E76E045F1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB0C51E-F043-43AE-B0BD-16E7E25B12B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3684" yWindow="2748" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="158" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="225" uniqueCount="54">
   <si>
     <t>Pouya Finance</t>
   </si>
@@ -35,6 +35,21 @@
   </si>
   <si>
     <t>مقدار فروش</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1399/06</t>
+  </si>
+  <si>
+    <t>فصل سوم منتهی به 1399/09</t>
+  </si>
+  <si>
+    <t>فصل چهارم منتهی به 1399/12</t>
+  </si>
+  <si>
+    <t>فصل اول منتهی به 1400/03</t>
+  </si>
+  <si>
+    <t>فصل دوم منتهی به 1400/06</t>
   </si>
   <si>
     <t>فصل سوم منتهی به 1400/09</t>
@@ -633,16 +648,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:I84"/>
+  <dimension ref="B1:N84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="9" width="20" customWidth="1"/>
+    <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -651,8 +666,13 @@
       <c r="G1" s="1"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
-    </row>
-    <row r="2" spans="2:9" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+    </row>
+    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -663,8 +683,13 @@
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -675,8 +700,13 @@
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -685,8 +715,13 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+    </row>
+    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -697,8 +732,13 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
-    </row>
-    <row r="6" spans="2:9" ht="40.799999999999997" x14ac:dyDescent="0.75">
+      <c r="J5" s="4"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="N5" s="4"/>
+    </row>
+    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -709,8 +749,13 @@
       <c r="G6" s="4"/>
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="4"/>
+      <c r="N6" s="4"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -719,8 +764,13 @@
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
-    </row>
-    <row r="8" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J7" s="1"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+    </row>
+    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -741,8 +791,23 @@
       <c r="I8" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L8" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N8" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -751,10 +816,15 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+    </row>
+    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B10" s="8" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -763,56 +833,91 @@
       <c r="G10" s="9"/>
       <c r="H10" s="9"/>
       <c r="I10" s="9"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+    </row>
+    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B11" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D11" s="11"/>
       <c r="E11" s="11">
+        <v>7949</v>
+      </c>
+      <c r="F11" s="11">
+        <v>9188</v>
+      </c>
+      <c r="G11" s="11">
+        <v>10342</v>
+      </c>
+      <c r="H11" s="11">
+        <v>8632</v>
+      </c>
+      <c r="I11" s="11">
+        <v>8117</v>
+      </c>
+      <c r="J11" s="11">
         <v>6972</v>
       </c>
-      <c r="F11" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G11" s="11">
+      <c r="K11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L11" s="11">
         <v>8020</v>
       </c>
-      <c r="H11" s="11">
+      <c r="M11" s="11">
         <v>8303</v>
       </c>
-      <c r="I11" s="11">
+      <c r="N11" s="11">
         <v>8430</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C12" s="13"/>
       <c r="D12" s="13"/>
       <c r="E12" s="13">
+        <v>7949</v>
+      </c>
+      <c r="F12" s="13">
+        <v>9188</v>
+      </c>
+      <c r="G12" s="13">
+        <v>10342</v>
+      </c>
+      <c r="H12" s="13">
+        <v>8632</v>
+      </c>
+      <c r="I12" s="13">
+        <v>8117</v>
+      </c>
+      <c r="J12" s="13">
         <v>6972</v>
       </c>
-      <c r="F12" s="13">
-        <v>0</v>
-      </c>
-      <c r="G12" s="13">
+      <c r="K12" s="13">
+        <v>0</v>
+      </c>
+      <c r="L12" s="13">
         <v>8020</v>
       </c>
-      <c r="H12" s="13">
+      <c r="M12" s="13">
         <v>8303</v>
       </c>
-      <c r="I12" s="13">
+      <c r="N12" s="13">
         <v>8430</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B13" s="8" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -821,56 +926,91 @@
       <c r="G13" s="9"/>
       <c r="H13" s="9"/>
       <c r="I13" s="9"/>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+    </row>
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B14" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D14" s="11"/>
       <c r="E14" s="11">
+        <v>3452</v>
+      </c>
+      <c r="F14" s="11">
+        <v>2555</v>
+      </c>
+      <c r="G14" s="11">
+        <v>2802</v>
+      </c>
+      <c r="H14" s="11">
+        <v>2277</v>
+      </c>
+      <c r="I14" s="11">
+        <v>1380</v>
+      </c>
+      <c r="J14" s="11">
         <v>2639</v>
       </c>
-      <c r="F14" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G14" s="11">
+      <c r="K14" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L14" s="11">
         <v>2960</v>
       </c>
-      <c r="H14" s="11">
+      <c r="M14" s="11">
         <v>1868</v>
       </c>
-      <c r="I14" s="11">
+      <c r="N14" s="11">
         <v>3050</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B15" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C15" s="13"/>
       <c r="D15" s="13"/>
       <c r="E15" s="13">
+        <v>3452</v>
+      </c>
+      <c r="F15" s="13">
+        <v>2555</v>
+      </c>
+      <c r="G15" s="13">
+        <v>2802</v>
+      </c>
+      <c r="H15" s="13">
+        <v>2277</v>
+      </c>
+      <c r="I15" s="13">
+        <v>1380</v>
+      </c>
+      <c r="J15" s="13">
         <v>2639</v>
       </c>
-      <c r="F15" s="13">
-        <v>0</v>
-      </c>
-      <c r="G15" s="13">
+      <c r="K15" s="13">
+        <v>0</v>
+      </c>
+      <c r="L15" s="13">
         <v>2960</v>
       </c>
-      <c r="H15" s="13">
+      <c r="M15" s="13">
         <v>1868</v>
       </c>
-      <c r="I15" s="13">
+      <c r="N15" s="13">
         <v>3050</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B16" s="8" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -879,32 +1019,52 @@
       <c r="G16" s="9"/>
       <c r="H16" s="9"/>
       <c r="I16" s="9"/>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+    </row>
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C17" s="11"/>
       <c r="D17" s="11"/>
-      <c r="E17" s="11" t="s">
-        <v>13</v>
+      <c r="E17" s="11">
+        <v>0</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" s="11">
-        <v>0</v>
-      </c>
-      <c r="H17" s="11">
+        <v>18</v>
+      </c>
+      <c r="G17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K17" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L17" s="11">
+        <v>0</v>
+      </c>
+      <c r="M17" s="11">
         <v>-9</v>
       </c>
-      <c r="I17" s="11">
+      <c r="N17" s="11">
         <v>-10</v>
       </c>
     </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C18" s="13"/>
       <c r="D18" s="13"/>
@@ -918,105 +1078,180 @@
         <v>0</v>
       </c>
       <c r="H18" s="13">
+        <v>0</v>
+      </c>
+      <c r="I18" s="13">
+        <v>0</v>
+      </c>
+      <c r="J18" s="13">
+        <v>0</v>
+      </c>
+      <c r="K18" s="13">
+        <v>0</v>
+      </c>
+      <c r="L18" s="13">
+        <v>0</v>
+      </c>
+      <c r="M18" s="13">
         <v>-9</v>
       </c>
-      <c r="I18" s="13">
+      <c r="N18" s="13">
         <v>-10</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B19" s="14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C19" s="15" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D19" s="15"/>
       <c r="E19" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="15">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="G19" s="15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H19" s="15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I19" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J19" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K19" s="15">
+        <v>0</v>
+      </c>
+      <c r="L19" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M19" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N19" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B20" s="12" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C20" s="13" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="D20" s="13"/>
-      <c r="E20" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F20" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G20" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H20" s="13" t="s">
-        <v>13</v>
+      <c r="E20" s="13">
+        <v>-20</v>
+      </c>
+      <c r="F20" s="13">
+        <v>0</v>
+      </c>
+      <c r="G20" s="13">
+        <v>-54</v>
+      </c>
+      <c r="H20" s="13">
+        <v>-17</v>
       </c>
       <c r="I20" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M20" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N20" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B21" s="14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C21" s="15"/>
       <c r="D21" s="15"/>
       <c r="E21" s="15">
         <v>0</v>
       </c>
-      <c r="F21" s="15" t="s">
-        <v>13</v>
+      <c r="F21" s="15">
+        <v>0</v>
       </c>
       <c r="G21" s="15">
         <v>0</v>
       </c>
-      <c r="H21" s="15">
-        <v>0</v>
+      <c r="H21" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="I21" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+        <v>17</v>
+      </c>
+      <c r="J21" s="15">
+        <v>0</v>
+      </c>
+      <c r="K21" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L21" s="15">
+        <v>0</v>
+      </c>
+      <c r="M21" s="15">
+        <v>0</v>
+      </c>
+      <c r="N21" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B22" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C22" s="13"/>
       <c r="D22" s="13"/>
       <c r="E22" s="13">
+        <v>11381</v>
+      </c>
+      <c r="F22" s="13">
+        <v>11743</v>
+      </c>
+      <c r="G22" s="13">
+        <v>13090</v>
+      </c>
+      <c r="H22" s="13">
+        <v>10892</v>
+      </c>
+      <c r="I22" s="13">
+        <v>9514</v>
+      </c>
+      <c r="J22" s="13">
         <v>9611</v>
       </c>
-      <c r="F22" s="13">
-        <v>0</v>
-      </c>
-      <c r="G22" s="13">
+      <c r="K22" s="13">
+        <v>0</v>
+      </c>
+      <c r="L22" s="13">
         <v>10980</v>
       </c>
-      <c r="H22" s="13">
+      <c r="M22" s="13">
         <v>10162</v>
       </c>
-      <c r="I22" s="13">
+      <c r="N22" s="13">
         <v>11470</v>
       </c>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1025,8 +1260,13 @@
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1035,8 +1275,13 @@
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+    </row>
+    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1045,10 +1290,15 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
-    </row>
-    <row r="26" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+    </row>
+    <row r="26" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B26" s="7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C26" s="6"/>
       <c r="D26" s="6"/>
@@ -1067,8 +1317,23 @@
       <c r="I26" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="27" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J26" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K26" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L26" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M26" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N26" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1077,10 +1342,15 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
-    </row>
-    <row r="28" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="1"/>
+      <c r="K27" s="1"/>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="1"/>
+    </row>
+    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B28" s="8" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -1089,56 +1359,91 @@
       <c r="G28" s="9"/>
       <c r="H28" s="9"/>
       <c r="I28" s="9"/>
-    </row>
-    <row r="29" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="9"/>
+      <c r="K28" s="9"/>
+      <c r="L28" s="9"/>
+      <c r="M28" s="9"/>
+      <c r="N28" s="9"/>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B29" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C29" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11">
+        <v>832211</v>
+      </c>
+      <c r="F29" s="11">
+        <v>1305422</v>
+      </c>
+      <c r="G29" s="11">
+        <v>2004007</v>
+      </c>
+      <c r="H29" s="11">
+        <v>1965183</v>
+      </c>
+      <c r="I29" s="11">
+        <v>1964604</v>
+      </c>
+      <c r="J29" s="11">
         <v>1831010</v>
       </c>
-      <c r="F29" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G29" s="11">
+      <c r="K29" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L29" s="11">
         <v>3070298</v>
       </c>
-      <c r="H29" s="11">
+      <c r="M29" s="11">
         <v>3644772</v>
       </c>
-      <c r="I29" s="11">
+      <c r="N29" s="11">
         <v>3115013</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B30" s="12" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="C30" s="13"/>
       <c r="D30" s="13"/>
       <c r="E30" s="13">
+        <v>832211</v>
+      </c>
+      <c r="F30" s="13">
+        <v>1305422</v>
+      </c>
+      <c r="G30" s="13">
+        <v>2004007</v>
+      </c>
+      <c r="H30" s="13">
+        <v>1965183</v>
+      </c>
+      <c r="I30" s="13">
+        <v>1964604</v>
+      </c>
+      <c r="J30" s="13">
         <v>1831010</v>
       </c>
-      <c r="F30" s="13">
-        <v>0</v>
-      </c>
-      <c r="G30" s="13">
+      <c r="K30" s="13">
+        <v>0</v>
+      </c>
+      <c r="L30" s="13">
         <v>3070298</v>
       </c>
-      <c r="H30" s="13">
+      <c r="M30" s="13">
         <v>3644772</v>
       </c>
-      <c r="I30" s="13">
+      <c r="N30" s="13">
         <v>3115013</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B31" s="8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
@@ -1147,56 +1452,91 @@
       <c r="G31" s="9"/>
       <c r="H31" s="9"/>
       <c r="I31" s="9"/>
-    </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J31" s="9"/>
+      <c r="K31" s="9"/>
+      <c r="L31" s="9"/>
+      <c r="M31" s="9"/>
+      <c r="N31" s="9"/>
+    </row>
+    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B32" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11">
+        <v>247378</v>
+      </c>
+      <c r="F32" s="11">
+        <v>331679</v>
+      </c>
+      <c r="G32" s="11">
+        <v>531672</v>
+      </c>
+      <c r="H32" s="11">
+        <v>499508</v>
+      </c>
+      <c r="I32" s="11">
+        <v>313748</v>
+      </c>
+      <c r="J32" s="11">
         <v>588384</v>
       </c>
-      <c r="F32" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G32" s="11">
+      <c r="K32" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L32" s="11">
         <v>955380</v>
       </c>
-      <c r="H32" s="11">
+      <c r="M32" s="11">
         <v>610882</v>
       </c>
-      <c r="I32" s="11">
+      <c r="N32" s="11">
         <v>891706</v>
       </c>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B33" s="12" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
       <c r="E33" s="13">
+        <v>247378</v>
+      </c>
+      <c r="F33" s="13">
+        <v>331679</v>
+      </c>
+      <c r="G33" s="13">
+        <v>531672</v>
+      </c>
+      <c r="H33" s="13">
+        <v>499508</v>
+      </c>
+      <c r="I33" s="13">
+        <v>313748</v>
+      </c>
+      <c r="J33" s="13">
         <v>588384</v>
       </c>
-      <c r="F33" s="13">
-        <v>0</v>
-      </c>
-      <c r="G33" s="13">
+      <c r="K33" s="13">
+        <v>0</v>
+      </c>
+      <c r="L33" s="13">
         <v>955380</v>
       </c>
-      <c r="H33" s="13">
+      <c r="M33" s="13">
         <v>610882</v>
       </c>
-      <c r="I33" s="13">
+      <c r="N33" s="13">
         <v>891706</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B34" s="8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C34" s="9"/>
       <c r="D34" s="9"/>
@@ -1205,34 +1545,54 @@
       <c r="G34" s="9"/>
       <c r="H34" s="9"/>
       <c r="I34" s="9"/>
-    </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J34" s="9"/>
+      <c r="K34" s="9"/>
+      <c r="L34" s="9"/>
+      <c r="M34" s="9"/>
+      <c r="N34" s="9"/>
+    </row>
+    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B35" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C35" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D35" s="11"/>
-      <c r="E35" s="11" t="s">
-        <v>13</v>
+      <c r="E35" s="11">
+        <v>0</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G35" s="11">
-        <v>0</v>
-      </c>
-      <c r="H35" s="11">
+        <v>18</v>
+      </c>
+      <c r="G35" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H35" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J35" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K35" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L35" s="11">
+        <v>0</v>
+      </c>
+      <c r="M35" s="11">
         <v>-3399</v>
       </c>
-      <c r="I35" s="11">
+      <c r="N35" s="11">
         <v>-3387</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B36" s="12" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C36" s="13"/>
       <c r="D36" s="13"/>
@@ -1246,107 +1606,182 @@
         <v>0</v>
       </c>
       <c r="H36" s="13">
+        <v>0</v>
+      </c>
+      <c r="I36" s="13">
+        <v>0</v>
+      </c>
+      <c r="J36" s="13">
+        <v>0</v>
+      </c>
+      <c r="K36" s="13">
+        <v>0</v>
+      </c>
+      <c r="L36" s="13">
+        <v>0</v>
+      </c>
+      <c r="M36" s="13">
         <v>-3399</v>
       </c>
-      <c r="I36" s="13">
+      <c r="N36" s="13">
         <v>-3387</v>
       </c>
     </row>
-    <row r="37" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B37" s="14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C37" s="15" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D37" s="15"/>
       <c r="E37" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F37" s="15">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="G37" s="15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H37" s="15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I37" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="38" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J37" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K37" s="15">
+        <v>0</v>
+      </c>
+      <c r="L37" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M37" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N37" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B38" s="12" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C38" s="13" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D38" s="13"/>
-      <c r="E38" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F38" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G38" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H38" s="13" t="s">
-        <v>13</v>
+      <c r="E38" s="13">
+        <v>-1669</v>
+      </c>
+      <c r="F38" s="13">
+        <v>-1</v>
+      </c>
+      <c r="G38" s="13">
+        <v>-8780</v>
+      </c>
+      <c r="H38" s="13">
+        <v>-1793</v>
       </c>
       <c r="I38" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J38" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K38" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L38" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M38" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N38" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B39" s="14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C39" s="15" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D39" s="15"/>
       <c r="E39" s="15">
         <v>0</v>
       </c>
-      <c r="F39" s="15" t="s">
-        <v>13</v>
+      <c r="F39" s="15">
+        <v>0</v>
       </c>
       <c r="G39" s="15">
         <v>0</v>
       </c>
-      <c r="H39" s="15">
-        <v>0</v>
+      <c r="H39" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="I39" s="15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="2:9" x14ac:dyDescent="0.3">
+        <v>1793</v>
+      </c>
+      <c r="J39" s="15">
+        <v>0</v>
+      </c>
+      <c r="K39" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L39" s="15">
+        <v>0</v>
+      </c>
+      <c r="M39" s="15">
+        <v>0</v>
+      </c>
+      <c r="N39" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B40" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C40" s="13"/>
       <c r="D40" s="13"/>
       <c r="E40" s="13">
+        <v>1077920</v>
+      </c>
+      <c r="F40" s="13">
+        <v>1637100</v>
+      </c>
+      <c r="G40" s="13">
+        <v>2526899</v>
+      </c>
+      <c r="H40" s="13">
+        <v>2462898</v>
+      </c>
+      <c r="I40" s="13">
+        <v>2280145</v>
+      </c>
+      <c r="J40" s="13">
         <v>2419394</v>
       </c>
-      <c r="F40" s="13">
-        <v>0</v>
-      </c>
-      <c r="G40" s="13">
+      <c r="K40" s="13">
+        <v>0</v>
+      </c>
+      <c r="L40" s="13">
         <v>4025678</v>
       </c>
-      <c r="H40" s="13">
+      <c r="M40" s="13">
         <v>4252255</v>
       </c>
-      <c r="I40" s="13">
+      <c r="N40" s="13">
         <v>4003332</v>
       </c>
     </row>
-    <row r="41" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1355,8 +1790,13 @@
       <c r="G41" s="1"/>
       <c r="H41" s="1"/>
       <c r="I41" s="1"/>
-    </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J41" s="1"/>
+      <c r="K41" s="1"/>
+      <c r="L41" s="1"/>
+      <c r="M41" s="1"/>
+      <c r="N41" s="1"/>
+    </row>
+    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1365,8 +1805,13 @@
       <c r="G42" s="1"/>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
-    </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J42" s="1"/>
+      <c r="K42" s="1"/>
+      <c r="L42" s="1"/>
+      <c r="M42" s="1"/>
+      <c r="N42" s="1"/>
+    </row>
+    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1375,10 +1820,15 @@
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
       <c r="I43" s="1"/>
-    </row>
-    <row r="44" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J43" s="1"/>
+      <c r="K43" s="1"/>
+      <c r="L43" s="1"/>
+      <c r="M43" s="1"/>
+      <c r="N43" s="1"/>
+    </row>
+    <row r="44" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B44" s="7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="C44" s="6"/>
       <c r="D44" s="6"/>
@@ -1397,8 +1847,23 @@
       <c r="I44" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J44" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K44" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L44" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M44" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N44" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1407,10 +1872,15 @@
       <c r="G45" s="1"/>
       <c r="H45" s="1"/>
       <c r="I45" s="1"/>
-    </row>
-    <row r="46" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J45" s="1"/>
+      <c r="K45" s="1"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+    </row>
+    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C46" s="9"/>
       <c r="D46" s="9"/>
@@ -1419,34 +1889,54 @@
       <c r="G46" s="9"/>
       <c r="H46" s="9"/>
       <c r="I46" s="9"/>
-    </row>
-    <row r="47" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J46" s="9"/>
+      <c r="K46" s="9"/>
+      <c r="L46" s="9"/>
+      <c r="M46" s="9"/>
+      <c r="N46" s="9"/>
+    </row>
+    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B47" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C47" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D47" s="11"/>
       <c r="E47" s="11">
+        <v>104693798</v>
+      </c>
+      <c r="F47" s="11">
+        <v>142079125</v>
+      </c>
+      <c r="G47" s="11">
+        <v>193773641</v>
+      </c>
+      <c r="H47" s="11">
+        <v>227662535</v>
+      </c>
+      <c r="I47" s="11">
+        <v>242035727</v>
+      </c>
+      <c r="J47" s="11">
         <v>262623351</v>
       </c>
-      <c r="F47" s="11">
+      <c r="K47" s="11">
         <v>283773018</v>
       </c>
-      <c r="G47" s="11">
+      <c r="L47" s="11">
         <v>382830175</v>
       </c>
-      <c r="H47" s="11">
+      <c r="M47" s="11">
         <v>438970493</v>
       </c>
-      <c r="I47" s="11">
+      <c r="N47" s="11">
         <v>369515184</v>
       </c>
     </row>
-    <row r="48" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="C48" s="9"/>
       <c r="D48" s="9"/>
@@ -1455,34 +1945,54 @@
       <c r="G48" s="9"/>
       <c r="H48" s="9"/>
       <c r="I48" s="9"/>
-    </row>
-    <row r="49" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J48" s="9"/>
+      <c r="K48" s="9"/>
+      <c r="L48" s="9"/>
+      <c r="M48" s="9"/>
+      <c r="N48" s="9"/>
+    </row>
+    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B49" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D49" s="11"/>
       <c r="E49" s="11">
+        <v>71662225</v>
+      </c>
+      <c r="F49" s="11">
+        <v>130181065</v>
+      </c>
+      <c r="G49" s="11">
+        <v>190511143</v>
+      </c>
+      <c r="H49" s="11">
+        <v>219371102</v>
+      </c>
+      <c r="I49" s="11">
+        <v>227353623</v>
+      </c>
+      <c r="J49" s="11">
         <v>222957181</v>
       </c>
-      <c r="F49" s="11">
+      <c r="K49" s="11">
         <v>230243499</v>
       </c>
-      <c r="G49" s="11">
+      <c r="L49" s="11">
         <v>322763514</v>
       </c>
-      <c r="H49" s="11">
+      <c r="M49" s="11">
         <v>327024625</v>
       </c>
-      <c r="I49" s="11">
+      <c r="N49" s="11">
         <v>292362623</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C50" s="9"/>
       <c r="D50" s="9"/>
@@ -1491,32 +2001,52 @@
       <c r="G50" s="9"/>
       <c r="H50" s="9"/>
       <c r="I50" s="9"/>
-    </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J50" s="9"/>
+      <c r="K50" s="9"/>
+      <c r="L50" s="9"/>
+      <c r="M50" s="9"/>
+      <c r="N50" s="9"/>
+    </row>
+    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B51" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D51" s="11"/>
       <c r="E51" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="F51" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="G51" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H51" s="11" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I51" s="11" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J51" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K51" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L51" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="M51" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="N51" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -1525,8 +2055,13 @@
       <c r="G52" s="1"/>
       <c r="H52" s="1"/>
       <c r="I52" s="1"/>
-    </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J52" s="1"/>
+      <c r="K52" s="1"/>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+    </row>
+    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -1535,8 +2070,13 @@
       <c r="G53" s="1"/>
       <c r="H53" s="1"/>
       <c r="I53" s="1"/>
-    </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J53" s="1"/>
+      <c r="K53" s="1"/>
+      <c r="L53" s="1"/>
+      <c r="M53" s="1"/>
+      <c r="N53" s="1"/>
+    </row>
+    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -1545,10 +2085,15 @@
       <c r="G54" s="1"/>
       <c r="H54" s="1"/>
       <c r="I54" s="1"/>
-    </row>
-    <row r="55" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J54" s="1"/>
+      <c r="K54" s="1"/>
+      <c r="L54" s="1"/>
+      <c r="M54" s="1"/>
+      <c r="N54" s="1"/>
+    </row>
+    <row r="55" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B55" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="C55" s="6"/>
       <c r="D55" s="6"/>
@@ -1567,8 +2112,23 @@
       <c r="I55" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="56" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J55" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K55" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L55" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M55" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N55" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -1577,10 +2137,15 @@
       <c r="G56" s="1"/>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
-    </row>
-    <row r="57" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J56" s="1"/>
+      <c r="K56" s="1"/>
+      <c r="L56" s="1"/>
+      <c r="M56" s="1"/>
+      <c r="N56" s="1"/>
+    </row>
+    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B57" s="8" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="C57" s="9"/>
       <c r="D57" s="9"/>
@@ -1589,56 +2154,91 @@
       <c r="G57" s="9"/>
       <c r="H57" s="9"/>
       <c r="I57" s="9"/>
-    </row>
-    <row r="58" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J57" s="9"/>
+      <c r="K57" s="9"/>
+      <c r="L57" s="9"/>
+      <c r="M57" s="9"/>
+      <c r="N57" s="9"/>
+    </row>
+    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B58" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D58" s="11"/>
       <c r="E58" s="11">
+        <v>-633812</v>
+      </c>
+      <c r="F58" s="11">
+        <v>-959885</v>
+      </c>
+      <c r="G58" s="11">
+        <v>-1364808</v>
+      </c>
+      <c r="H58" s="11">
+        <v>-1383537</v>
+      </c>
+      <c r="I58" s="11">
+        <v>-1380431</v>
+      </c>
+      <c r="J58" s="11">
         <v>-881139</v>
       </c>
-      <c r="F58" s="11">
+      <c r="K58" s="11">
         <v>-2318846</v>
       </c>
-      <c r="G58" s="11">
+      <c r="L58" s="11">
         <v>-2193250</v>
       </c>
-      <c r="H58" s="11">
+      <c r="M58" s="11">
         <v>-2873616</v>
       </c>
-      <c r="I58" s="11">
+      <c r="N58" s="11">
         <v>-2399560</v>
       </c>
     </row>
-    <row r="59" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B59" s="12" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="C59" s="13"/>
       <c r="D59" s="13"/>
       <c r="E59" s="13">
+        <v>-633812</v>
+      </c>
+      <c r="F59" s="13">
+        <v>-959885</v>
+      </c>
+      <c r="G59" s="13">
+        <v>-1364808</v>
+      </c>
+      <c r="H59" s="13">
+        <v>-1383537</v>
+      </c>
+      <c r="I59" s="13">
+        <v>-1380431</v>
+      </c>
+      <c r="J59" s="13">
         <v>-881139</v>
       </c>
-      <c r="F59" s="13">
+      <c r="K59" s="13">
         <v>-2318846</v>
       </c>
-      <c r="G59" s="13">
+      <c r="L59" s="13">
         <v>-2193250</v>
       </c>
-      <c r="H59" s="13">
+      <c r="M59" s="13">
         <v>-2873616</v>
       </c>
-      <c r="I59" s="13">
+      <c r="N59" s="13">
         <v>-2399560</v>
       </c>
     </row>
-    <row r="60" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B60" s="8" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="C60" s="9"/>
       <c r="D60" s="9"/>
@@ -1647,56 +2247,91 @@
       <c r="G60" s="9"/>
       <c r="H60" s="9"/>
       <c r="I60" s="9"/>
-    </row>
-    <row r="61" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J60" s="9"/>
+      <c r="K60" s="9"/>
+      <c r="L60" s="9"/>
+      <c r="M60" s="9"/>
+      <c r="N60" s="9"/>
+    </row>
+    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B61" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C61" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D61" s="11"/>
       <c r="E61" s="11">
+        <v>-265205</v>
+      </c>
+      <c r="F61" s="11">
+        <v>-271215</v>
+      </c>
+      <c r="G61" s="11">
+        <v>-377233</v>
+      </c>
+      <c r="H61" s="11">
+        <v>-365003</v>
+      </c>
+      <c r="I61" s="11">
+        <v>-238321</v>
+      </c>
+      <c r="J61" s="11">
         <v>-943476</v>
       </c>
-      <c r="F61" s="11">
+      <c r="K61" s="11">
         <v>-184210</v>
       </c>
-      <c r="G61" s="11">
+      <c r="L61" s="11">
         <v>-848039</v>
       </c>
-      <c r="H61" s="11">
+      <c r="M61" s="11">
         <v>-332771</v>
       </c>
-      <c r="I61" s="11">
+      <c r="N61" s="11">
         <v>-687426</v>
       </c>
     </row>
-    <row r="62" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B62" s="12" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C62" s="13"/>
       <c r="D62" s="13"/>
       <c r="E62" s="13">
+        <v>-265205</v>
+      </c>
+      <c r="F62" s="13">
+        <v>-271215</v>
+      </c>
+      <c r="G62" s="13">
+        <v>-377233</v>
+      </c>
+      <c r="H62" s="13">
+        <v>-365003</v>
+      </c>
+      <c r="I62" s="13">
+        <v>-238321</v>
+      </c>
+      <c r="J62" s="13">
         <v>-943476</v>
       </c>
-      <c r="F62" s="13">
+      <c r="K62" s="13">
         <v>-184210</v>
       </c>
-      <c r="G62" s="13">
+      <c r="L62" s="13">
         <v>-848039</v>
       </c>
-      <c r="H62" s="13">
+      <c r="M62" s="13">
         <v>-332771</v>
       </c>
-      <c r="I62" s="13">
+      <c r="N62" s="13">
         <v>-687426</v>
       </c>
     </row>
-    <row r="63" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B63" s="8" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="C63" s="9"/>
       <c r="D63" s="9"/>
@@ -1705,34 +2340,54 @@
       <c r="G63" s="9"/>
       <c r="H63" s="9"/>
       <c r="I63" s="9"/>
-    </row>
-    <row r="64" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J63" s="9"/>
+      <c r="K63" s="9"/>
+      <c r="L63" s="9"/>
+      <c r="M63" s="9"/>
+      <c r="N63" s="9"/>
+    </row>
+    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B64" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C64" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D64" s="11"/>
-      <c r="E64" s="11" t="s">
-        <v>13</v>
+      <c r="E64" s="11">
+        <v>0</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G64" s="11">
-        <v>0</v>
-      </c>
-      <c r="H64" s="11">
-        <v>0</v>
-      </c>
-      <c r="I64" s="11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="G64" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H64" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I64" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J64" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K64" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L64" s="11">
+        <v>0</v>
+      </c>
+      <c r="M64" s="11">
+        <v>0</v>
+      </c>
+      <c r="N64" s="11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B65" s="12" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="C65" s="13"/>
       <c r="D65" s="13"/>
@@ -1751,102 +2406,177 @@
       <c r="I65" s="13">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J65" s="13">
+        <v>0</v>
+      </c>
+      <c r="K65" s="13">
+        <v>0</v>
+      </c>
+      <c r="L65" s="13">
+        <v>0</v>
+      </c>
+      <c r="M65" s="13">
+        <v>0</v>
+      </c>
+      <c r="N65" s="13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B66" s="14" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C66" s="15" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D66" s="15"/>
       <c r="E66" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F66" s="15">
-        <v>0</v>
+        <v>18</v>
+      </c>
+      <c r="F66" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="G66" s="15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="H66" s="15" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="I66" s="15" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="67" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J66" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="K66" s="15">
+        <v>0</v>
+      </c>
+      <c r="L66" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="M66" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="N66" s="15" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B67" s="12" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D67" s="13"/>
-      <c r="E67" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="F67" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="G67" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="H67" s="13" t="s">
-        <v>13</v>
+      <c r="E67" s="13">
+        <v>1496</v>
+      </c>
+      <c r="F67" s="13">
+        <v>2613</v>
+      </c>
+      <c r="G67" s="13">
+        <v>3270</v>
+      </c>
+      <c r="H67" s="13">
+        <v>2725</v>
       </c>
       <c r="I67" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="68" spans="2:9" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="J67" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="K67" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="L67" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="M67" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="N67" s="13" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B68" s="14" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C68" s="15" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D68" s="15"/>
       <c r="E68" s="15">
         <v>0</v>
       </c>
-      <c r="F68" s="15" t="s">
-        <v>13</v>
+      <c r="F68" s="15">
+        <v>0</v>
       </c>
       <c r="G68" s="15">
         <v>0</v>
       </c>
-      <c r="H68" s="15">
-        <v>0</v>
+      <c r="H68" s="15" t="s">
+        <v>18</v>
       </c>
       <c r="I68" s="15">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J68" s="15">
+        <v>0</v>
+      </c>
+      <c r="K68" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="L68" s="15">
+        <v>0</v>
+      </c>
+      <c r="M68" s="15">
+        <v>0</v>
+      </c>
+      <c r="N68" s="15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B69" s="12" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C69" s="13"/>
       <c r="D69" s="13"/>
       <c r="E69" s="13">
+        <v>-897521</v>
+      </c>
+      <c r="F69" s="13">
+        <v>-1228487</v>
+      </c>
+      <c r="G69" s="13">
+        <v>-1738771</v>
+      </c>
+      <c r="H69" s="13">
+        <v>-1745815</v>
+      </c>
+      <c r="I69" s="13">
+        <v>-1618752</v>
+      </c>
+      <c r="J69" s="13">
         <v>-1824615</v>
       </c>
-      <c r="F69" s="13">
+      <c r="K69" s="13">
         <v>-2503056</v>
       </c>
-      <c r="G69" s="13">
+      <c r="L69" s="13">
         <v>-3041289</v>
       </c>
-      <c r="H69" s="13">
+      <c r="M69" s="13">
         <v>-3206387</v>
       </c>
-      <c r="I69" s="13">
+      <c r="N69" s="13">
         <v>-3086986</v>
       </c>
     </row>
-    <row r="70" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -1855,8 +2585,13 @@
       <c r="G70" s="1"/>
       <c r="H70" s="1"/>
       <c r="I70" s="1"/>
-    </row>
-    <row r="71" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J70" s="1"/>
+      <c r="K70" s="1"/>
+      <c r="L70" s="1"/>
+      <c r="M70" s="1"/>
+      <c r="N70" s="1"/>
+    </row>
+    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -1865,8 +2600,13 @@
       <c r="G71" s="1"/>
       <c r="H71" s="1"/>
       <c r="I71" s="1"/>
-    </row>
-    <row r="72" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J71" s="1"/>
+      <c r="K71" s="1"/>
+      <c r="L71" s="1"/>
+      <c r="M71" s="1"/>
+      <c r="N71" s="1"/>
+    </row>
+    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -1875,10 +2615,15 @@
       <c r="G72" s="1"/>
       <c r="H72" s="1"/>
       <c r="I72" s="1"/>
-    </row>
-    <row r="73" spans="2:9" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="J72" s="1"/>
+      <c r="K72" s="1"/>
+      <c r="L72" s="1"/>
+      <c r="M72" s="1"/>
+      <c r="N72" s="1"/>
+    </row>
+    <row r="73" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
       <c r="B73" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C73" s="6"/>
       <c r="D73" s="6"/>
@@ -1897,8 +2642,23 @@
       <c r="I73" s="6" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="74" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J73" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="K73" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="L73" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="M73" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="N73" s="6" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -1907,10 +2667,15 @@
       <c r="G74" s="1"/>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
-    </row>
-    <row r="75" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J74" s="1"/>
+      <c r="K74" s="1"/>
+      <c r="L74" s="1"/>
+      <c r="M74" s="1"/>
+      <c r="N74" s="1"/>
+    </row>
+    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B75" s="8" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="C75" s="9"/>
       <c r="D75" s="9"/>
@@ -1919,56 +2684,91 @@
       <c r="G75" s="9"/>
       <c r="H75" s="9"/>
       <c r="I75" s="9"/>
-    </row>
-    <row r="76" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J75" s="9"/>
+      <c r="K75" s="9"/>
+      <c r="L75" s="9"/>
+      <c r="M75" s="9"/>
+      <c r="N75" s="9"/>
+    </row>
+    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B76" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C76" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D76" s="11"/>
       <c r="E76" s="11">
+        <v>198399</v>
+      </c>
+      <c r="F76" s="11">
+        <v>345538</v>
+      </c>
+      <c r="G76" s="11">
+        <v>639199</v>
+      </c>
+      <c r="H76" s="11">
+        <v>581646</v>
+      </c>
+      <c r="I76" s="11">
+        <v>584173</v>
+      </c>
+      <c r="J76" s="11">
         <v>949871</v>
       </c>
-      <c r="F76" s="11">
+      <c r="K76" s="11">
         <v>-324773</v>
       </c>
-      <c r="G76" s="11">
+      <c r="L76" s="11">
         <v>877048</v>
       </c>
-      <c r="H76" s="11">
+      <c r="M76" s="11">
         <v>771156</v>
       </c>
-      <c r="I76" s="11">
+      <c r="N76" s="11">
         <v>715453</v>
       </c>
     </row>
-    <row r="77" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B77" s="12" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="C77" s="13"/>
       <c r="D77" s="13"/>
       <c r="E77" s="13">
+        <v>198399</v>
+      </c>
+      <c r="F77" s="13">
+        <v>345538</v>
+      </c>
+      <c r="G77" s="13">
+        <v>639199</v>
+      </c>
+      <c r="H77" s="13">
+        <v>581646</v>
+      </c>
+      <c r="I77" s="13">
+        <v>584173</v>
+      </c>
+      <c r="J77" s="13">
         <v>949871</v>
       </c>
-      <c r="F77" s="13">
+      <c r="K77" s="13">
         <v>-324773</v>
       </c>
-      <c r="G77" s="13">
+      <c r="L77" s="13">
         <v>877048</v>
       </c>
-      <c r="H77" s="13">
+      <c r="M77" s="13">
         <v>771156</v>
       </c>
-      <c r="I77" s="13">
+      <c r="N77" s="13">
         <v>715453</v>
       </c>
     </row>
-    <row r="78" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B78" s="8" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="C78" s="9"/>
       <c r="D78" s="9"/>
@@ -1977,56 +2777,91 @@
       <c r="G78" s="9"/>
       <c r="H78" s="9"/>
       <c r="I78" s="9"/>
-    </row>
-    <row r="79" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J78" s="9"/>
+      <c r="K78" s="9"/>
+      <c r="L78" s="9"/>
+      <c r="M78" s="9"/>
+      <c r="N78" s="9"/>
+    </row>
+    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B79" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C79" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D79" s="11"/>
       <c r="E79" s="11">
+        <v>-17827</v>
+      </c>
+      <c r="F79" s="11">
+        <v>58794</v>
+      </c>
+      <c r="G79" s="11">
+        <v>152769</v>
+      </c>
+      <c r="H79" s="11">
+        <v>134505</v>
+      </c>
+      <c r="I79" s="11">
+        <v>75427</v>
+      </c>
+      <c r="J79" s="11">
         <v>-355092</v>
       </c>
-      <c r="F79" s="11">
+      <c r="K79" s="11">
         <v>763242</v>
       </c>
-      <c r="G79" s="11">
+      <c r="L79" s="11">
         <v>107341</v>
       </c>
-      <c r="H79" s="11">
+      <c r="M79" s="11">
         <v>278111</v>
       </c>
-      <c r="I79" s="11">
+      <c r="N79" s="11">
         <v>204280</v>
       </c>
     </row>
-    <row r="80" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B80" s="12" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="C80" s="13"/>
       <c r="D80" s="13"/>
       <c r="E80" s="13">
+        <v>-17827</v>
+      </c>
+      <c r="F80" s="13">
+        <v>58794</v>
+      </c>
+      <c r="G80" s="13">
+        <v>152769</v>
+      </c>
+      <c r="H80" s="13">
+        <v>134505</v>
+      </c>
+      <c r="I80" s="13">
+        <v>75427</v>
+      </c>
+      <c r="J80" s="13">
         <v>-355092</v>
       </c>
-      <c r="F80" s="13">
+      <c r="K80" s="13">
         <v>763242</v>
       </c>
-      <c r="G80" s="13">
+      <c r="L80" s="13">
         <v>107341</v>
       </c>
-      <c r="H80" s="13">
+      <c r="M80" s="13">
         <v>278111</v>
       </c>
-      <c r="I80" s="13">
+      <c r="N80" s="13">
         <v>204280</v>
       </c>
     </row>
-    <row r="81" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B81" s="8" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="C81" s="9"/>
       <c r="D81" s="9"/>
@@ -2035,34 +2870,54 @@
       <c r="G81" s="9"/>
       <c r="H81" s="9"/>
       <c r="I81" s="9"/>
-    </row>
-    <row r="82" spans="2:9" x14ac:dyDescent="0.3">
+      <c r="J81" s="9"/>
+      <c r="K81" s="9"/>
+      <c r="L81" s="9"/>
+      <c r="M81" s="9"/>
+      <c r="N81" s="9"/>
+    </row>
+    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B82" s="10" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C82" s="11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D82" s="11"/>
-      <c r="E82" s="11" t="s">
-        <v>13</v>
+      <c r="E82" s="11">
+        <v>0</v>
       </c>
       <c r="F82" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="G82" s="11">
-        <v>0</v>
-      </c>
-      <c r="H82" s="11">
+        <v>18</v>
+      </c>
+      <c r="G82" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="H82" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="I82" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="J82" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="K82" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="L82" s="11">
+        <v>0</v>
+      </c>
+      <c r="M82" s="11">
         <v>-3399</v>
       </c>
-      <c r="I82" s="11">
+      <c r="N82" s="11">
         <v>-3387</v>
       </c>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B83" s="12" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="C83" s="13"/>
       <c r="D83" s="13"/>
@@ -2076,31 +2931,61 @@
         <v>0</v>
       </c>
       <c r="H83" s="13">
+        <v>0</v>
+      </c>
+      <c r="I83" s="13">
+        <v>0</v>
+      </c>
+      <c r="J83" s="13">
+        <v>0</v>
+      </c>
+      <c r="K83" s="13">
+        <v>0</v>
+      </c>
+      <c r="L83" s="13">
+        <v>0</v>
+      </c>
+      <c r="M83" s="13">
         <v>-3399</v>
       </c>
-      <c r="I83" s="13">
+      <c r="N83" s="13">
         <v>-3387</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B84" s="14" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C84" s="15"/>
       <c r="D84" s="15"/>
       <c r="E84" s="15">
+        <v>180572</v>
+      </c>
+      <c r="F84" s="15">
+        <v>404332</v>
+      </c>
+      <c r="G84" s="15">
+        <v>791968</v>
+      </c>
+      <c r="H84" s="15">
+        <v>716151</v>
+      </c>
+      <c r="I84" s="15">
+        <v>659600</v>
+      </c>
+      <c r="J84" s="15">
         <v>594779</v>
       </c>
-      <c r="F84" s="15">
+      <c r="K84" s="15">
         <v>438469</v>
       </c>
-      <c r="G84" s="15">
+      <c r="L84" s="15">
         <v>984389</v>
       </c>
-      <c r="H84" s="15">
+      <c r="M84" s="15">
         <v>1045868</v>
       </c>
-      <c r="I84" s="15">
+      <c r="N84" s="15">
         <v>916346</v>
       </c>
     </row>

--- a/database/industries/dode/shekarbon/product/quarterly_seprated.xlsx
+++ b/database/industries/dode/shekarbon/product/quarterly_seprated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\Users\EBRAHIMI\Desktop\Trade\database\industries\dode\shekarbon\product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EBRAHIMI\Desktop\Trade\database\industries\dode\shekarbon\product\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EB0C51E-F043-43AE-B0BD-16E7E25B12B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5231D3A3-578A-4CD9-8019-A9B8D618CEF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3120" yWindow="3120" windowWidth="21600" windowHeight="11025" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="1152" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -652,12 +652,12 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="14" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B1" s="1"/>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -672,7 +672,7 @@
       <c r="M1" s="1"/>
       <c r="N1" s="1"/>
     </row>
-    <row r="2" spans="2:14" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -689,7 +689,7 @@
       <c r="M2" s="1"/>
       <c r="N2" s="1"/>
     </row>
-    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
@@ -706,7 +706,7 @@
       <c r="M3" s="1"/>
       <c r="N3" s="1"/>
     </row>
-    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -721,7 +721,7 @@
       <c r="M4" s="1"/>
       <c r="N4" s="1"/>
     </row>
-    <row r="5" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="5" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B5" s="4" t="s">
         <v>2</v>
       </c>
@@ -738,7 +738,7 @@
       <c r="M5" s="4"/>
       <c r="N5" s="4"/>
     </row>
-    <row r="6" spans="2:14" ht="42" x14ac:dyDescent="0.65">
+    <row r="6" spans="2:14" ht="40.799999999999997" x14ac:dyDescent="0.75">
       <c r="B6" s="5" t="s">
         <v>3</v>
       </c>
@@ -755,7 +755,7 @@
       <c r="M6" s="4"/>
       <c r="N6" s="4"/>
     </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
@@ -770,7 +770,7 @@
       <c r="M7" s="1"/>
       <c r="N7" s="1"/>
     </row>
-    <row r="8" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B8" s="7" t="s">
         <v>4</v>
       </c>
@@ -807,7 +807,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
@@ -822,7 +822,7 @@
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
     </row>
-    <row r="10" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B10" s="8" t="s">
         <v>15</v>
       </c>
@@ -839,7 +839,7 @@
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
     </row>
-    <row r="11" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B11" s="10" t="s">
         <v>16</v>
       </c>
@@ -878,7 +878,7 @@
         <v>8430</v>
       </c>
     </row>
-    <row r="12" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B12" s="12" t="s">
         <v>19</v>
       </c>
@@ -915,7 +915,7 @@
         <v>8430</v>
       </c>
     </row>
-    <row r="13" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B13" s="8" t="s">
         <v>20</v>
       </c>
@@ -932,7 +932,7 @@
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
     </row>
-    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B14" s="10" t="s">
         <v>16</v>
       </c>
@@ -971,7 +971,7 @@
         <v>3050</v>
       </c>
     </row>
-    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B15" s="12" t="s">
         <v>21</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>3050</v>
       </c>
     </row>
-    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B16" s="8" t="s">
         <v>22</v>
       </c>
@@ -1025,7 +1025,7 @@
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
     </row>
-    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B17" s="10" t="s">
         <v>16</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>23</v>
       </c>
@@ -1099,7 +1099,7 @@
         <v>-10</v>
       </c>
     </row>
-    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B19" s="14" t="s">
         <v>24</v>
       </c>
@@ -1138,7 +1138,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B20" s="12" t="s">
         <v>26</v>
       </c>
@@ -1177,7 +1177,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B21" s="14" t="s">
         <v>27</v>
       </c>
@@ -1214,7 +1214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B22" s="12" t="s">
         <v>28</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>11470</v>
       </c>
     </row>
-    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -1266,7 +1266,7 @@
       <c r="M23" s="1"/>
       <c r="N23" s="1"/>
     </row>
-    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -1281,7 +1281,7 @@
       <c r="M24" s="1"/>
       <c r="N24" s="1"/>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -1296,7 +1296,7 @@
       <c r="M25" s="1"/>
       <c r="N25" s="1"/>
     </row>
-    <row r="26" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B26" s="7" t="s">
         <v>29</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1348,7 +1348,7 @@
       <c r="M27" s="1"/>
       <c r="N27" s="1"/>
     </row>
-    <row r="28" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
         <v>30</v>
       </c>
@@ -1365,7 +1365,7 @@
       <c r="M28" s="9"/>
       <c r="N28" s="9"/>
     </row>
-    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B29" s="10" t="s">
         <v>16</v>
       </c>
@@ -1404,7 +1404,7 @@
         <v>3115013</v>
       </c>
     </row>
-    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B30" s="12" t="s">
         <v>19</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>3115013</v>
       </c>
     </row>
-    <row r="31" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B31" s="8" t="s">
         <v>32</v>
       </c>
@@ -1458,7 +1458,7 @@
       <c r="M31" s="9"/>
       <c r="N31" s="9"/>
     </row>
-    <row r="32" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B32" s="10" t="s">
         <v>16</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>891706</v>
       </c>
     </row>
-    <row r="33" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B33" s="12" t="s">
         <v>21</v>
       </c>
@@ -1534,7 +1534,7 @@
         <v>891706</v>
       </c>
     </row>
-    <row r="34" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B34" s="8" t="s">
         <v>33</v>
       </c>
@@ -1551,7 +1551,7 @@
       <c r="M34" s="9"/>
       <c r="N34" s="9"/>
     </row>
-    <row r="35" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B35" s="10" t="s">
         <v>16</v>
       </c>
@@ -1590,7 +1590,7 @@
         <v>-3387</v>
       </c>
     </row>
-    <row r="36" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B36" s="12" t="s">
         <v>23</v>
       </c>
@@ -1627,7 +1627,7 @@
         <v>-3387</v>
       </c>
     </row>
-    <row r="37" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B37" s="14" t="s">
         <v>24</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B38" s="12" t="s">
         <v>26</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B39" s="14" t="s">
         <v>27</v>
       </c>
@@ -1744,7 +1744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B40" s="12" t="s">
         <v>28</v>
       </c>
@@ -1781,7 +1781,7 @@
         <v>4003332</v>
       </c>
     </row>
-    <row r="41" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B41" s="1"/>
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
@@ -1796,7 +1796,7 @@
       <c r="M41" s="1"/>
       <c r="N41" s="1"/>
     </row>
-    <row r="42" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B42" s="1"/>
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
@@ -1811,7 +1811,7 @@
       <c r="M42" s="1"/>
       <c r="N42" s="1"/>
     </row>
-    <row r="43" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B43" s="1"/>
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
@@ -1826,7 +1826,7 @@
       <c r="M43" s="1"/>
       <c r="N43" s="1"/>
     </row>
-    <row r="44" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B44" s="7" t="s">
         <v>34</v>
       </c>
@@ -1863,7 +1863,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="45" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B45" s="1"/>
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
@@ -1878,7 +1878,7 @@
       <c r="M45" s="1"/>
       <c r="N45" s="1"/>
     </row>
-    <row r="46" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B46" s="8" t="s">
         <v>35</v>
       </c>
@@ -1895,7 +1895,7 @@
       <c r="M46" s="9"/>
       <c r="N46" s="9"/>
     </row>
-    <row r="47" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B47" s="10" t="s">
         <v>16</v>
       </c>
@@ -1934,7 +1934,7 @@
         <v>369515184</v>
       </c>
     </row>
-    <row r="48" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B48" s="8" t="s">
         <v>37</v>
       </c>
@@ -1951,7 +1951,7 @@
       <c r="M48" s="9"/>
       <c r="N48" s="9"/>
     </row>
-    <row r="49" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B49" s="10" t="s">
         <v>16</v>
       </c>
@@ -1990,7 +1990,7 @@
         <v>292362623</v>
       </c>
     </row>
-    <row r="50" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B50" s="8" t="s">
         <v>38</v>
       </c>
@@ -2007,7 +2007,7 @@
       <c r="M50" s="9"/>
       <c r="N50" s="9"/>
     </row>
-    <row r="51" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B51" s="10" t="s">
         <v>16</v>
       </c>
@@ -2046,7 +2046,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B52" s="1"/>
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
@@ -2061,7 +2061,7 @@
       <c r="M52" s="1"/>
       <c r="N52" s="1"/>
     </row>
-    <row r="53" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B53" s="1"/>
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
@@ -2076,7 +2076,7 @@
       <c r="M53" s="1"/>
       <c r="N53" s="1"/>
     </row>
-    <row r="54" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B54" s="1"/>
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
@@ -2091,7 +2091,7 @@
       <c r="M54" s="1"/>
       <c r="N54" s="1"/>
     </row>
-    <row r="55" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B55" s="7" t="s">
         <v>40</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="56" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
@@ -2143,7 +2143,7 @@
       <c r="M56" s="1"/>
       <c r="N56" s="1"/>
     </row>
-    <row r="57" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B57" s="8" t="s">
         <v>41</v>
       </c>
@@ -2160,7 +2160,7 @@
       <c r="M57" s="9"/>
       <c r="N57" s="9"/>
     </row>
-    <row r="58" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B58" s="10" t="s">
         <v>16</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>-2399560</v>
       </c>
     </row>
-    <row r="59" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B59" s="12" t="s">
         <v>42</v>
       </c>
@@ -2236,7 +2236,7 @@
         <v>-2399560</v>
       </c>
     </row>
-    <row r="60" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B60" s="8" t="s">
         <v>43</v>
       </c>
@@ -2253,7 +2253,7 @@
       <c r="M60" s="9"/>
       <c r="N60" s="9"/>
     </row>
-    <row r="61" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B61" s="10" t="s">
         <v>16</v>
       </c>
@@ -2292,7 +2292,7 @@
         <v>-687426</v>
       </c>
     </row>
-    <row r="62" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B62" s="12" t="s">
         <v>44</v>
       </c>
@@ -2329,7 +2329,7 @@
         <v>-687426</v>
       </c>
     </row>
-    <row r="63" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B63" s="8" t="s">
         <v>45</v>
       </c>
@@ -2346,7 +2346,7 @@
       <c r="M63" s="9"/>
       <c r="N63" s="9"/>
     </row>
-    <row r="64" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B64" s="10" t="s">
         <v>16</v>
       </c>
@@ -2385,7 +2385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="65" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B65" s="12" t="s">
         <v>46</v>
       </c>
@@ -2422,7 +2422,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="66" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B66" s="14" t="s">
         <v>24</v>
       </c>
@@ -2461,7 +2461,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="67" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B67" s="12" t="s">
         <v>26</v>
       </c>
@@ -2500,7 +2500,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B68" s="14" t="s">
         <v>27</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="69" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B69" s="12" t="s">
         <v>28</v>
       </c>
@@ -2576,7 +2576,7 @@
         <v>-3086986</v>
       </c>
     </row>
-    <row r="70" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B70" s="1"/>
       <c r="C70" s="1"/>
       <c r="D70" s="1"/>
@@ -2591,7 +2591,7 @@
       <c r="M70" s="1"/>
       <c r="N70" s="1"/>
     </row>
-    <row r="71" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B71" s="1"/>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
@@ -2606,7 +2606,7 @@
       <c r="M71" s="1"/>
       <c r="N71" s="1"/>
     </row>
-    <row r="72" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B72" s="1"/>
       <c r="C72" s="1"/>
       <c r="D72" s="1"/>
@@ -2621,7 +2621,7 @@
       <c r="M72" s="1"/>
       <c r="N72" s="1"/>
     </row>
-    <row r="73" spans="2:14" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:14" ht="31.2" x14ac:dyDescent="0.3">
       <c r="B73" s="7" t="s">
         <v>47</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="74" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B74" s="1"/>
       <c r="C74" s="1"/>
       <c r="D74" s="1"/>
@@ -2673,7 +2673,7 @@
       <c r="M74" s="1"/>
       <c r="N74" s="1"/>
     </row>
-    <row r="75" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B75" s="8" t="s">
         <v>48</v>
       </c>
@@ -2690,7 +2690,7 @@
       <c r="M75" s="9"/>
       <c r="N75" s="9"/>
     </row>
-    <row r="76" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B76" s="10" t="s">
         <v>16</v>
       </c>
@@ -2729,7 +2729,7 @@
         <v>715453</v>
       </c>
     </row>
-    <row r="77" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B77" s="12" t="s">
         <v>49</v>
       </c>
@@ -2766,7 +2766,7 @@
         <v>715453</v>
       </c>
     </row>
-    <row r="78" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B78" s="8" t="s">
         <v>50</v>
       </c>
@@ -2783,7 +2783,7 @@
       <c r="M78" s="9"/>
       <c r="N78" s="9"/>
     </row>
-    <row r="79" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B79" s="10" t="s">
         <v>16</v>
       </c>
@@ -2822,7 +2822,7 @@
         <v>204280</v>
       </c>
     </row>
-    <row r="80" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B80" s="12" t="s">
         <v>51</v>
       </c>
@@ -2859,7 +2859,7 @@
         <v>204280</v>
       </c>
     </row>
-    <row r="81" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B81" s="8" t="s">
         <v>52</v>
       </c>
@@ -2876,7 +2876,7 @@
       <c r="M81" s="9"/>
       <c r="N81" s="9"/>
     </row>
-    <row r="82" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B82" s="10" t="s">
         <v>16</v>
       </c>
@@ -2915,7 +2915,7 @@
         <v>-3387</v>
       </c>
     </row>
-    <row r="83" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B83" s="12" t="s">
         <v>53</v>
       </c>
@@ -2952,7 +2952,7 @@
         <v>-3387</v>
       </c>
     </row>
-    <row r="84" spans="2:14" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:14" x14ac:dyDescent="0.3">
       <c r="B84" s="14" t="s">
         <v>28</v>
       </c>
